--- a/Excel Output/Section_8.xlsx
+++ b/Excel Output/Section_8.xlsx
@@ -508,13 +508,13 @@
         <v>5.367585574295084e-08</v>
       </c>
       <c r="F2">
-        <v>0.00845877608119801</v>
+        <v>2.245692764919826e-05</v>
       </c>
       <c r="G2">
         <v>288.8380151009035</v>
       </c>
       <c r="H2">
-        <v>0.8968110785519304</v>
+        <v>0.9978265286567387</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,19 +523,19 @@
         <v>1.503719234532486e-07</v>
       </c>
       <c r="K2">
-        <v>3.76191553671118e-05</v>
+        <v>7.989909104519322e-07</v>
       </c>
       <c r="L2">
-        <v>0.9999550024263014</v>
+        <v>0.9999989827148696</v>
       </c>
       <c r="M2">
-        <v>0.9999996783372772</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3.859594937755282e-07</v>
+        <v>1.419707773327952e-07</v>
       </c>
       <c r="O2">
-        <v>2.468414312578474e-08</v>
+        <v>1.152186627372334e-06</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9999999999958143</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.896770724225576</v>
+        <v>0.9978255135826485</v>
       </c>
       <c r="X2">
-        <v>-1.811705567253682e-05</v>
+        <v>-5.623166478004769e-07</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>3.785790525616838e-08</v>
       </c>
       <c r="F3">
-        <v>0.005966025860839545</v>
+        <v>1.583900671019348e-05</v>
       </c>
       <c r="G3">
         <v>409.5215392064057</v>
       </c>
       <c r="H3">
-        <v>0.9161427503900744</v>
+        <v>0.9982818991302178</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,19 +597,19 @@
         <v>1.63974051406698e-07</v>
       </c>
       <c r="K3">
-        <v>4.102205501122811e-05</v>
+        <v>8.712648851942255e-07</v>
       </c>
       <c r="L3">
-        <v>0.9999509328785763</v>
+        <v>0.999998890696155</v>
       </c>
       <c r="M3">
-        <v>0.9999996492407717</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>4.208720645442029e-07</v>
+        <v>1.548129664501788e-07</v>
       </c>
       <c r="O3">
-        <v>2.468414312604811e-08</v>
+        <v>1.152186627380404e-06</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9999999999949196</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9160977978978454</v>
+        <v>0.9982807917322687</v>
       </c>
       <c r="X3">
-        <v>-0.001606012927078905</v>
+        <v>-4.977892438293825e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>2.67289016617397e-08</v>
       </c>
       <c r="F4">
-        <v>0.004212206604320604</v>
+        <v>1.11828493920016e-05</v>
       </c>
       <c r="G4">
         <v>580.0323495457563</v>
       </c>
       <c r="H4">
-        <v>0.9320705105729747</v>
+        <v>0.99864081382185</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,19 +671,19 @@
         <v>1.789906847856156e-07</v>
       </c>
       <c r="K4">
-        <v>4.477882722773896e-05</v>
+        <v>9.510547375802966e-07</v>
       </c>
       <c r="L4">
-        <v>0.9999464402556949</v>
+        <v>0.9999987891085005</v>
       </c>
       <c r="M4">
-        <v>0.9999996171184773</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>4.594152452393791e-07</v>
+        <v>1.689906338282872e-07</v>
       </c>
       <c r="O4">
-        <v>2.468414312636535e-08</v>
+        <v>1.152186627390126e-06</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9999999999938171</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9320205891089915</v>
+        <v>0.9986396045761775</v>
       </c>
       <c r="X4">
-        <v>-0.05948642372543386</v>
+        <v>-0.001837506610019154</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>1.889490010158615e-08</v>
       </c>
       <c r="F5">
-        <v>0.002977646594053839</v>
+        <v>7.905256444390723e-06</v>
       </c>
       <c r="G5">
         <v>820.5191638104975</v>
       </c>
       <c r="H5">
-        <v>0.945141978234272</v>
+        <v>0.9989237385269689</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,19 +745,19 @@
         <v>1.956251490276788e-07</v>
       </c>
       <c r="K5">
-        <v>4.894033876792617e-05</v>
+        <v>1.039440823389583e-06</v>
       </c>
       <c r="L5">
-        <v>0.9999414637624515</v>
+        <v>0.9999986765764707</v>
       </c>
       <c r="M5">
-        <v>0.999999581535458</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>5.021109110967751e-07</v>
+        <v>1.846957452927591e-07</v>
       </c>
       <c r="O5">
-        <v>2.46841431267492e-08</v>
+        <v>1.152186627401888e-06</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9999999999924515</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9450866531717831</v>
+        <v>0.9989224165277893</v>
       </c>
       <c r="X5">
-        <v>-1.178198085691622</v>
+        <v>-0.03620151135292228</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.337698695977072e-08</v>
       </c>
       <c r="F6">
-        <v>0.002108078870240769</v>
+        <v>5.596669567010889e-06</v>
       </c>
       <c r="G6">
         <v>1158.977554382103</v>
       </c>
       <c r="H6">
-        <v>0.9558171778084186</v>
+        <v>0.9991468081798756</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,19 +819,19 @@
         <v>2.141258788883885e-07</v>
       </c>
       <c r="K6">
-        <v>5.356874156448536e-05</v>
+        <v>1.137743183670486e-06</v>
       </c>
       <c r="L6">
-        <v>0.9999359291185508</v>
+        <v>0.9999985514194847</v>
       </c>
       <c r="M6">
-        <v>0.9999995419602833</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>5.495967194015237e-07</v>
+        <v>2.021628557694407e-07</v>
       </c>
       <c r="O6">
-        <v>2.468414312721615e-08</v>
+        <v>1.152186627416197e-06</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9999999999907594</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9557559377505003</v>
+        <v>0.9991453608352773</v>
       </c>
       <c r="X6">
-        <v>-13.15900010000399</v>
+        <v>-0.4014958405364819</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>9.487602955131187e-09</v>
       </c>
       <c r="F7">
-        <v>0.001495150991706486</v>
+        <v>3.969427411610141e-06</v>
       </c>
       <c r="G7">
         <v>1634.093216690894</v>
       </c>
       <c r="H7">
-        <v>0.9644903130448194</v>
+        <v>0.9993227341731757</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,19 +893,19 @@
         <v>2.348000179484226e-07</v>
       </c>
       <c r="K7">
-        <v>5.874087497556395e-05</v>
+        <v>1.247593804790739e-06</v>
       </c>
       <c r="L7">
-        <v>0.9999297444938995</v>
+        <v>0.9999984115598218</v>
       </c>
       <c r="M7">
-        <v>0.999999497735938</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>6.026610153326486e-07</v>
+        <v>2.216819489993141e-07</v>
       </c>
       <c r="O7">
-        <v>2.468414312778784e-08</v>
+        <v>1.152186627433716e-06</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9999999999886349</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9644225522787866</v>
+        <v>0.9993211468087938</v>
       </c>
       <c r="X7">
-        <v>-78.57559719215801</v>
+        <v>-2.37693338043109</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>6.743738211120288e-09</v>
       </c>
       <c r="F8">
-        <v>0.001062745450231165</v>
+        <v>2.821448097958845e-06</v>
       </c>
       <c r="G8">
         <v>2298.966410954563</v>
       </c>
       <c r="H8">
-        <v>0.971501547409263</v>
+        <v>0.9994615263182527</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,19 +967,19 @@
         <v>2.580317192880479e-07</v>
       </c>
       <c r="K8">
-        <v>6.455284413887268e-05</v>
+        <v>1.371033857816765e-06</v>
       </c>
       <c r="L8">
-        <v>0.9999227950392159</v>
+        <v>0.9999982543988283</v>
       </c>
       <c r="M8">
-        <v>0.9999994480406749</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>6.622898042892105e-07</v>
+        <v>2.436157157704453e-07</v>
       </c>
       <c r="O8">
-        <v>2.468414312849309e-08</v>
+        <v>1.152186627455327e-06</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9999999999859589</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9714265426567537</v>
+        <v>0.9994597816570413</v>
       </c>
       <c r="X8">
-        <v>-194.9811258070837</v>
+        <v>-4.869542824316339</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>4.806003878107212e-09</v>
       </c>
       <c r="F9">
-        <v>0.000757377969807534</v>
+        <v>2.010737972940356e-06</v>
       </c>
       <c r="G9">
         <v>3225.887457615259</v>
       </c>
       <c r="H9">
-        <v>0.9771435556352974</v>
+        <v>0.9995710652509591</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,19 +1041,19 @@
         <v>2.843068211189093e-07</v>
       </c>
       <c r="K9">
-        <v>7.112619317479942e-05</v>
+        <v>1.5106448107922e-06</v>
       </c>
       <c r="L9">
-        <v>0.9999149355121217</v>
+        <v>0.999998076650001</v>
       </c>
       <c r="M9">
-        <v>0.9999993918352305</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>7.297300868143766e-07</v>
+        <v>2.684228509440904e-07</v>
       </c>
       <c r="O9">
-        <v>2.468414312937085e-08</v>
+        <v>1.152186627482225e-06</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0.9999999999825494</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9770604354021034</v>
+        <v>0.9995691427259517</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>3.435864251838654e-09</v>
       </c>
       <c r="F10">
-        <v>0.0005414577178029048</v>
+        <v>1.43749836584842e-06</v>
       </c>
       <c r="G10">
         <v>4512.293413029868</v>
       </c>
       <c r="H10">
-        <v>0.9816659690260844</v>
+        <v>0.9996575550610008</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,19 +1112,19 @@
         <v>3.142461232563716e-07</v>
       </c>
       <c r="K10">
-        <v>7.861623009676687e-05</v>
+        <v>1.669725240993279e-06</v>
       </c>
       <c r="L10">
-        <v>0.9999059803342208</v>
+        <v>0.9999978741138952</v>
       </c>
       <c r="M10">
-        <v>0.9999993277916429</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>8.06575269289948e-07</v>
+        <v>2.966894708000134e-07</v>
       </c>
       <c r="O10">
-        <v>2.468414313047469e-08</v>
+        <v>1.15218662751605e-06</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0.9999999999781559</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9815736730983281</v>
+        <v>0.9996554299028949</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>2.465614566222241e-09</v>
       </c>
       <c r="F11">
-        <v>0.0003885561064567301</v>
+        <v>1.031564884398398e-06</v>
       </c>
       <c r="G11">
         <v>6287.936421218773</v>
       </c>
       <c r="H11">
-        <v>0.9852793388566757</v>
+        <v>0.9997258805206523</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,19 +1183,19 @@
         <v>3.486501754466912e-07</v>
       </c>
       <c r="K11">
-        <v>8.722323168911031e-05</v>
+        <v>1.852528814635971e-06</v>
       </c>
       <c r="L11">
-        <v>0.9998956902104836</v>
+        <v>0.9999976413751651</v>
       </c>
       <c r="M11">
-        <v>0.999999254197445</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>8.948801220993288e-07</v>
+        <v>3.291713990795056e-07</v>
       </c>
       <c r="O11">
-        <v>2.468414313187951e-08</v>
+        <v>1.152186627559099e-06</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0.9999999999724267</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9851765645490602</v>
+        <v>0.9997235225423624</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>1.777304497156777e-09</v>
       </c>
       <c r="F12">
-        <v>0.0002800853486444838</v>
+        <v>7.435894211800456e-07</v>
       </c>
       <c r="G12">
         <v>8723.112812935602</v>
       </c>
       <c r="H12">
-        <v>0.9881592238086262</v>
+        <v>0.9997798886313167</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,19 +1254,19 @@
         <v>3.885593017498834e-07</v>
       </c>
       <c r="K12">
-        <v>9.720746005094445e-05</v>
+        <v>2.064583222320945e-06</v>
       </c>
       <c r="L12">
-        <v>0.9998837542002198</v>
+        <v>0.9999973713965508</v>
       </c>
       <c r="M12">
-        <v>0.9999991688272645</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>9.973148441622721e-07</v>
+        <v>3.668508378591691e-07</v>
       </c>
       <c r="O12">
-        <v>2.468414313369179e-08</v>
+        <v>1.152186627614633e-06</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9999999999648442</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9880443544146089</v>
+        <v>0.999777260606453</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.287940625483673e-09</v>
       </c>
       <c r="F13">
-        <v>0.0002029665145725272</v>
+        <v>5.38849153732373e-07</v>
       </c>
       <c r="G13">
         <v>12037.53288379588</v>
       </c>
       <c r="H13">
-        <v>0.9904504567000015</v>
+        <v>0.9998226102968489</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,19 +1325,19 @@
         <v>4.353334933163737e-07</v>
       </c>
       <c r="K13">
-        <v>0.0001089091496968704</v>
+        <v>2.313114683827336e-06</v>
       </c>
       <c r="L13">
-        <v>0.9998697658591644</v>
+        <v>0.9999970549784821</v>
       </c>
       <c r="M13">
-        <v>0.9999990687719252</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.11737012365981e-06</v>
+        <v>4.110117967889275e-07</v>
       </c>
       <c r="O13">
-        <v>2.468414313606556e-08</v>
+        <v>1.152186627687374e-06</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0.9999999999546411</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9903214661908131</v>
+        <v>0.9998196657977475</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>9.390963302072559e-10</v>
       </c>
       <c r="F14">
-        <v>0.000147992155242745</v>
+        <v>3.928995271931282e-07</v>
       </c>
       <c r="G14">
         <v>16509.09191415405</v>
       </c>
       <c r="H14">
-        <v>0.9922714239539817</v>
+        <v>0.9998564347107927</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,19 +1396,19 @@
         <v>4.907577335573345e-07</v>
       </c>
       <c r="K14">
-        <v>0.0001227748571829961</v>
+        <v>2.607607586187528e-06</v>
       </c>
       <c r="L14">
-        <v>0.9998531917964666</v>
+        <v>0.9999966800466756</v>
       </c>
       <c r="M14">
-        <v>0.9999989502131438</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.2596274760634e-06</v>
+        <v>4.633395338384252e-07</v>
       </c>
       <c r="O14">
-        <v>2.468414313922723e-08</v>
+        <v>1.152186627784258e-06</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0.9999999999406594</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9921257503099401</v>
+        <v>0.9998531152340984</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>6.896156232966538e-10</v>
       </c>
       <c r="F15">
-        <v>0.0001086765000542776</v>
+        <v>2.885216815600289e-07</v>
       </c>
       <c r="G15">
         <v>22481.54929774136</v>
       </c>
       <c r="H15">
-        <v>0.9937181544738485</v>
+        <v>0.9998832464262079</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,19 +1467,19 @@
         <v>5.571791671282506e-07</v>
       </c>
       <c r="K15">
-        <v>0.0001393917772291606</v>
+        <v>2.960533321681286e-06</v>
       </c>
       <c r="L15">
-        <v>0.9998333307414351</v>
+        <v>0.9999962307243738</v>
       </c>
       <c r="M15">
-        <v>0.9999988081301093</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.430111315653615e-06</v>
+        <v>5.260500607710237e-07</v>
       </c>
       <c r="O15">
-        <v>2.468414314351475e-08</v>
+        <v>1.152186627915642e-06</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0.9999999999211222</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9935525321274505</v>
+        <v>0.9998794775906581</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>5.104890294133102e-10</v>
       </c>
       <c r="F16">
-        <v>8.0447946883127e-05</v>
+        <v>2.135786200437e-07</v>
       </c>
       <c r="G16">
         <v>30370.14850143637</v>
       </c>
       <c r="H16">
-        <v>0.9948680592489668</v>
+        <v>0.9999045329734032</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,19 +1538,19 @@
         <v>6.376831780500678e-07</v>
       </c>
       <c r="K16">
-        <v>0.0001595317928982763</v>
+        <v>3.388285866866046e-06</v>
       </c>
       <c r="L16">
-        <v>0.9998092610262012</v>
+        <v>0.9999956861414656</v>
       </c>
       <c r="M16">
-        <v>0.9999986359228332</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1.636740895090659e-06</v>
+        <v>6.020563839363426e-07</v>
       </c>
       <c r="O16">
-        <v>2.468414314943988e-08</v>
+        <v>1.152186628097209e-06</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0.9999999998932564</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9946782990301049</v>
+        <v>0.9999002195267001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>3.812543930937494e-10</v>
       </c>
       <c r="F17">
-        <v>6.008186542189593e-05</v>
+        <v>1.595093772262724e-07</v>
       </c>
       <c r="G17">
         <v>40664.78422931654</v>
       </c>
       <c r="H17">
-        <v>0.9957832292339288</v>
+        <v>0.9999214692218633</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,19 +1609,19 @@
         <v>7.363158903387759e-07</v>
       </c>
       <c r="K17">
-        <v>0.0001842071394833199</v>
+        <v>3.912364024424493e-06</v>
       </c>
       <c r="L17">
-        <v>0.9997797742667839</v>
+        <v>0.9999950189297153</v>
       </c>
       <c r="M17">
-        <v>0.9999984249361938</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1.889901397599578e-06</v>
+        <v>6.951785739868238e-07</v>
       </c>
       <c r="O17">
-        <v>2.468414315778763e-08</v>
+        <v>1.152186628353013e-06</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0.9999999998526428</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9955639319954429</v>
+        <v>0.999916488542746</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>2.874682951751665e-10</v>
       </c>
       <c r="F18">
-        <v>4.530211778970677e-05</v>
+        <v>1.202711091762127e-07</v>
       </c>
       <c r="G18">
         <v>53931.60877859362</v>
       </c>
       <c r="H18">
-        <v>0.996513259015631</v>
+        <v>0.9999349833782112</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,19 +1680,19 @@
         <v>8.583611224937569e-07</v>
       </c>
       <c r="K18">
-        <v>0.0002147396913375288</v>
+        <v>4.56084300185902e-06</v>
       </c>
       <c r="L18">
-        <v>0.999743292885385</v>
+        <v>0.9999941933498496</v>
       </c>
       <c r="M18">
-        <v>0.9999981638674997</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>2.20315479583052e-06</v>
+        <v>8.104052471642214e-07</v>
       </c>
       <c r="O18">
-        <v>2.468414316977589e-08</v>
+        <v>1.152186628720375e-06</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.999999999792174</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9962574467651855</v>
+        <v>0.9999291771055896</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.189290315033527e-10</v>
       </c>
       <c r="F19">
-        <v>3.45010178138354e-05</v>
+        <v>9.159562251460724e-08</v>
       </c>
       <c r="G19">
         <v>70815.768585716</v>
       </c>
       <c r="H19">
-        <v>0.9970976085280554</v>
+        <v>0.9999458085113014</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,19 +1751,19 @@
         <v>1.010681254361173e-06</v>
       </c>
       <c r="K19">
-        <v>0.0002528462379232737</v>
+        <v>5.370185584211123e-06</v>
       </c>
       <c r="L19">
-        <v>0.9996977687122752</v>
+        <v>0.9999931629866384</v>
       </c>
       <c r="M19">
-        <v>0.9999978380373367</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2.594114754560099e-06</v>
+        <v>9.542153882333699e-07</v>
       </c>
       <c r="O19">
-        <v>2.468414318731223e-08</v>
+        <v>1.152186629257749e-06</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0.9999999997002518</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.9967962541350548</v>
+        <v>0.9999389718684478</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.684270257958236e-10</v>
       </c>
       <c r="F20">
-        <v>2.654240863996165e-05</v>
+        <v>7.046657161051764e-08</v>
       </c>
       <c r="G20">
         <v>92049.5244654542</v>
       </c>
       <c r="H20">
-        <v>0.9975675444741776</v>
+        <v>0.9999545227404991</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,19 +1822,19 @@
         <v>1.202135448287695e-06</v>
       </c>
       <c r="K20">
-        <v>0.0003007431118981965</v>
+        <v>6.38746432350152e-06</v>
       </c>
       <c r="L20">
-        <v>0.9996405587472955</v>
+        <v>0.9999918679212187</v>
       </c>
       <c r="M20">
-        <v>0.9999974284949441</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>3.085520078586936e-06</v>
+        <v>1.134973205990637e-06</v>
       </c>
       <c r="O20">
-        <v>2.468414321340816e-08</v>
+        <v>1.152186630057419e-06</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0.9999999995577588</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.9972089771053275</v>
+        <v>0.9999463910315425</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.308651919445982e-10</v>
       </c>
       <c r="F21">
-        <v>2.06230406606555e-05</v>
+        <v>5.475143538227122e-08</v>
       </c>
       <c r="G21">
         <v>118470.2165737075</v>
       </c>
       <c r="H21">
-        <v>0.9979477198439699</v>
+        <v>0.9999615806522457</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,19 +1893,19 @@
         <v>1.444097578693565e-06</v>
       </c>
       <c r="K21">
-        <v>0.0003612757616619391</v>
+        <v>7.673113522023487e-06</v>
       </c>
       <c r="L21">
-        <v>0.9995682715453988</v>
+        <v>0.9999902312297074</v>
       </c>
       <c r="M21">
-        <v>0.9999969109103054</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>3.706564082146104e-06</v>
+        <v>1.363417126570669e-06</v>
       </c>
       <c r="O21">
-        <v>2.468414325284826e-08</v>
+        <v>1.152186631266e-06</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0.9999999993328681</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9975168767516336</v>
+        <v>0.9999518122572629</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.026386281087213e-10</v>
       </c>
       <c r="F22">
-        <v>1.617481753082341e-05</v>
+        <v>4.294199344466392e-08</v>
       </c>
       <c r="G22">
         <v>151050.6123992025</v>
       </c>
       <c r="H22">
-        <v>0.9982574564937619</v>
+        <v>0.9999673380561102</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,19 +1964,19 @@
         <v>1.751112310064584e-06</v>
       </c>
       <c r="K22">
-        <v>0.0004380828850544206</v>
+        <v>9.304415257793003e-06</v>
       </c>
       <c r="L22">
-        <v>0.9994765729576713</v>
+        <v>0.9999881545484764</v>
       </c>
       <c r="M22">
-        <v>0.9999962541707216</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>4.494578543758207e-06</v>
+        <v>1.653279216942309e-06</v>
       </c>
       <c r="O22">
-        <v>2.468414331327388e-08</v>
+        <v>1.15218663311765e-06</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0.9999999989722228</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9977349405203776</v>
+        <v>0.9999554929914821</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>8.119608707754666e-11</v>
       </c>
       <c r="F23">
-        <v>1.279568829880503e-05</v>
+        <v>3.397085389063281e-08</v>
       </c>
       <c r="G23">
         <v>190940.5759520105</v>
       </c>
       <c r="H23">
-        <v>0.9985117937767334</v>
+        <v>0.9999720717892617</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,19 +2035,19 @@
         <v>2.141751266667246e-06</v>
       </c>
       <c r="K23">
-        <v>0.0005358106208138882</v>
+        <v>1.13800485836578e-05</v>
       </c>
       <c r="L23">
-        <v>0.9993599330552388</v>
+        <v>0.9999855122876858</v>
       </c>
       <c r="M23">
-        <v>0.9999954185493668</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>5.497231236341734e-06</v>
+        <v>2.02209352118039e-06</v>
       </c>
       <c r="O23">
-        <v>2.468414340694533e-08</v>
+        <v>1.152186635988068e-06</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>0.9999999983857837</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9978726777728003</v>
+        <v>0.9999575844815635</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>6.472908254021182e-11</v>
       </c>
       <c r="F24">
-        <v>1.020065367511056e-05</v>
+        <v>2.708138143834661e-08</v>
       </c>
       <c r="G24">
         <v>239515.6400062521</v>
       </c>
       <c r="H24">
-        <v>0.9987223569574351</v>
+        <v>0.9999759958795937</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,19 +2106,19 @@
         <v>2.639758229302488e-06</v>
       </c>
       <c r="K24">
-        <v>0.000660399047104141</v>
+        <v>1.402617445176937e-05</v>
       </c>
       <c r="L24">
-        <v>0.999211288193108</v>
+        <v>0.9999821438924446</v>
       </c>
       <c r="M24">
-        <v>0.9999943532555814</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>6.775465302790619e-06</v>
+        <v>2.492277276091602e-06</v>
       </c>
       <c r="O24">
-        <v>2.468414355362264e-08</v>
+        <v>1.152186640482769e-06</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0.9999999974206465</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9979346502686695</v>
+        <v>0.9999581402006584</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.19510914822534e-11</v>
       </c>
       <c r="F25">
-        <v>8.18697054643467e-06</v>
+        <v>2.173532003478231e-08</v>
       </c>
       <c r="G25">
         <v>298427.3706151568</v>
       </c>
       <c r="H25">
-        <v>0.9988980846366271</v>
+        <v>0.9999792749699358</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,19 +2177,19 @@
         <v>3.275594601362588e-06</v>
       </c>
       <c r="K25">
-        <v>0.0008194688170404573</v>
+        <v>1.740464744156723e-05</v>
       </c>
       <c r="L25">
-        <v>0.9990215858197248</v>
+        <v>0.9999778434006317</v>
       </c>
       <c r="M25">
-        <v>0.9999929931289436</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>8.407466002447047e-06</v>
+        <v>3.092590033452201e-06</v>
       </c>
       <c r="O25">
-        <v>2.468414378530263e-08</v>
+        <v>1.152186647582246e-06</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0.9999999958156538</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.997920744410323</v>
+        <v>0.9999571188297637</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.19409704133572e-11</v>
       </c>
       <c r="F26">
-        <v>6.609475944895962e-06</v>
+        <v>1.75472812696353e-08</v>
       </c>
       <c r="G26">
         <v>369653.5268220407</v>
       </c>
       <c r="H26">
-        <v>0.9990458382268506</v>
+        <v>0.9999820355217288</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,19 +2248,19 @@
         <v>4.088506704298104e-06</v>
       </c>
       <c r="K26">
-        <v>0.00102283834240032</v>
+        <v>2.172400019257317e-05</v>
       </c>
       <c r="L26">
-        <v>0.9987791770430795</v>
+        <v>0.9999723454775008</v>
       </c>
       <c r="M26">
-        <v>0.9999912542170883</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1.049396683669712e-05</v>
+        <v>3.860085457509033e-06</v>
       </c>
       <c r="O26">
-        <v>2.468414415404737e-08</v>
+        <v>1.152186658881862e-06</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>0.9999999931221268</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9978261732696054</v>
+        <v>0.9999543814960287</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.40326572343741e-11</v>
       </c>
       <c r="F27">
-        <v>5.363205169421825e-06</v>
+        <v>1.42385977949252e-08</v>
       </c>
       <c r="G27">
         <v>455551.4876451428</v>
       </c>
       <c r="H27">
-        <v>0.9991709034669261</v>
+        <v>0.9999843750245464</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,19 +2319,19 @@
         <v>5.12923820423864e-06</v>
       </c>
       <c r="K27">
-        <v>0.001283202372417417</v>
+        <v>2.725385569736108e-05</v>
       </c>
       <c r="L27">
-        <v>0.9984690221789793</v>
+        <v>0.9999653070967131</v>
       </c>
       <c r="M27">
-        <v>0.9999890279735167</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1.3165211532175e-05</v>
+        <v>4.842672210728433e-06</v>
       </c>
       <c r="O27">
-        <v>2.468414474496356e-08</v>
+        <v>1.15218667698958e-06</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>0.9999999885649475</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9976411835662294</v>
+        <v>0.9999496826633352</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>2.773841210272067e-11</v>
       </c>
       <c r="F28">
-        <v>4.371295316623265e-06</v>
+        <v>1.160520880519451e-08</v>
       </c>
       <c r="G28">
         <v>558922.6800086264</v>
       </c>
       <c r="H28">
-        <v>0.9992773882853099</v>
+        <v>0.9999863693042279</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,19 +2390,19 @@
         <v>6.46352412286314e-06</v>
       </c>
       <c r="K28">
-        <v>0.001617006104684567</v>
+        <v>3.434349248887577e-05</v>
       </c>
       <c r="L28">
-        <v>0.9980716716789391</v>
+        <v>0.999956283950454</v>
       </c>
       <c r="M28">
-        <v>0.999986173783508</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1.658992211562536e-05</v>
+        <v>6.102412757375213e-06</v>
       </c>
       <c r="O28">
-        <v>2.468414569775607e-08</v>
+        <v>1.152186706186442e-06</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>0.9999999807983257</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.997350434246085</v>
+        <v>0.999942653850562</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.269612593133847e-11</v>
       </c>
       <c r="F29">
-        <v>3.576681629134089e-06</v>
+        <v>9.495614944603775e-09</v>
       </c>
       <c r="G29">
         <v>683095.7705530341</v>
       </c>
       <c r="H29">
-        <v>0.9993685239593632</v>
+        <v>0.9999880780574193</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,19 +2461,19 @@
         <v>8.176553442485585e-06</v>
       </c>
       <c r="K29">
-        <v>0.002045561613208938</v>
+        <v>4.34455563867385e-05</v>
       </c>
       <c r="L29">
-        <v>0.9975619714111404</v>
+        <v>0.9999447003322945</v>
       </c>
       <c r="M29">
-        <v>0.9999825094180967</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2.098675307875176e-05</v>
+        <v>7.719736646806475e-06</v>
       </c>
       <c r="O29">
-        <v>2.468414724255042e-08</v>
+        <v>1.15218675352429e-06</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>0.9999999674756695</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9969320025025969</v>
+        <v>0.9999327790489932</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>1.863343535955882e-11</v>
       </c>
       <c r="F30">
-        <v>2.936442375223517e-06</v>
+        <v>7.795864712982787e-09</v>
       </c>
       <c r="G30">
         <v>832032.7053209274</v>
       </c>
       <c r="H30">
-        <v>0.9994468837004534</v>
+        <v>0.999989548869118</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,19 +2532,19 @@
         <v>1.037868300424866e-05</v>
       </c>
       <c r="K30">
-        <v>0.002596477317550718</v>
+        <v>5.514642090373207e-05</v>
       </c>
       <c r="L30">
-        <v>0.9969074152996399</v>
+        <v>0.9999298105938345</v>
       </c>
       <c r="M30">
-        <v>0.9999777988113927</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>2.663895723606873e-05</v>
+        <v>9.798835181236219e-06</v>
       </c>
       <c r="O30">
-        <v>2.46841497594846e-08</v>
+        <v>1.152186830651869e-06</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9999999444907179</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.996355954252092</v>
+        <v>0.9999193601965111</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.534316539601589e-11</v>
       </c>
       <c r="F31">
-        <v>2.417928855819474e-06</v>
+        <v>6.419280148193293e-09</v>
       </c>
       <c r="G31">
         <v>1010458.222373209</v>
       </c>
       <c r="H31">
-        <v>0.999514538264421</v>
+        <v>0.9999908200719069</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,19 +2603,19 @@
         <v>1.321280581364587e-05</v>
       </c>
       <c r="K31">
-        <v>0.00330550134176849</v>
+        <v>7.020533823225111e-05</v>
       </c>
       <c r="L31">
-        <v>0.9960660364526897</v>
+        <v>0.9999106494688934</v>
       </c>
       <c r="M31">
-        <v>0.9999717362989331</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>3.39132979486999e-05</v>
+        <v>1.247461806055693e-05</v>
       </c>
       <c r="O31">
-        <v>2.468415387796037e-08</v>
+        <v>1.152186956856229e-06</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0.9999999046365941</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9955823895637455</v>
+        <v>0.9999014703610317</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.266622346411515e-11</v>
       </c>
       <c r="F32">
-        <v>1.996069677779415e-06</v>
+        <v>5.299300029502873e-09</v>
       </c>
       <c r="G32">
         <v>1224013.430329876</v>
       </c>
       <c r="H32">
-        <v>0.9995731680179023</v>
+        <v>0.9999919228043994</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,19 +2674,19 @@
         <v>1.686389931688434e-05</v>
       </c>
       <c r="K32">
-        <v>0.00421891024553159</v>
+        <v>8.960517335642316e-05</v>
       </c>
       <c r="L32">
-        <v>0.9949836976970485</v>
+        <v>0.9998859677419438</v>
       </c>
       <c r="M32">
-        <v>0.9999639261928286</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>4.328455667756201e-05</v>
+        <v>1.592172820496259e-05</v>
       </c>
       <c r="O32">
-        <v>2.468416064214903e-08</v>
+        <v>1.152187164134393e-06</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0.9999998352326767</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9945588429623802</v>
+        <v>0.9998778914674041</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.047941257128225e-11</v>
       </c>
       <c r="F33">
-        <v>1.651450231692103e-06</v>
+        <v>4.384381146085228e-09</v>
       </c>
       <c r="G33">
         <v>1479436.707561495</v>
       </c>
       <c r="H33">
-        <v>0.9996241461578866</v>
+        <v>0.9999928825399377</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,19 +2745,19 @@
         <v>2.157141146188025e-05</v>
       </c>
       <c r="K33">
-        <v>0.005396607695349913</v>
+        <v>0.0001146182165384052</v>
       </c>
       <c r="L33">
-        <v>0.9935906127628079</v>
+        <v>0.9998541488601287</v>
       </c>
       <c r="M33">
-        <v>0.9999538562865641</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>5.536732427606029e-05</v>
+        <v>2.036623581769145e-05</v>
       </c>
       <c r="O33">
-        <v>2.468417178725868e-08</v>
+        <v>1.152187505659147e-06</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0.9999997139198447</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9932168837737916</v>
+        <v>0.999847032438156</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>8.686587014053822e-12</v>
       </c>
       <c r="F34">
-        <v>1.368918919776578e-06</v>
+        <v>3.634298017105961e-09</v>
       </c>
       <c r="G34">
         <v>1784777.796682794</v>
       </c>
       <c r="H34">
-        <v>0.9996686022648215</v>
+        <v>0.9999937202546827</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,19 +2816,19 @@
         <v>2.764531658338609e-05</v>
       </c>
       <c r="K34">
-        <v>0.006916141230624962</v>
+        <v>0.000146891495163716</v>
       </c>
       <c r="L34">
-        <v>0.9917968925306803</v>
+        <v>0.9998131009361877</v>
       </c>
       <c r="M34">
-        <v>0.9999408635096261</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>7.095721161740183e-05</v>
+        <v>2.610079724207814e-05</v>
       </c>
       <c r="O34">
-        <v>2.468419020105102e-08</v>
+        <v>1.15218806992151e-06</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0.9999995012029215</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9914677187452902</v>
+        <v>0.9998068223645489</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.212155524051183e-12</v>
       </c>
       <c r="F35">
-        <v>1.136563316901307e-06</v>
+        <v>3.017424735136212e-09</v>
       </c>
       <c r="G35">
         <v>2149652.427756815</v>
       </c>
       <c r="H35">
-        <v>0.9997074715826711</v>
+        <v>0.9999944533341186</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,19 +2887,19 @@
         <v>3.548691496862573e-05</v>
       </c>
       <c r="K35">
-        <v>0.008877905775537088</v>
+        <v>0.0001885572908078674</v>
       </c>
       <c r="L35">
-        <v>0.9894868621224023</v>
+        <v>0.9997601169947068</v>
       </c>
       <c r="M35">
-        <v>0.9999240894348554</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>9.108423582281514e-05</v>
+        <v>3.350429247388707e-05</v>
       </c>
       <c r="O35">
-        <v>2.468422069532063e-08</v>
+        <v>1.152189004371529e-06</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>0.9999991272146412</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9891965457396424</v>
+        <v>0.9997545716593763</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>5.996268755206733e-12</v>
       </c>
       <c r="F36">
-        <v>9.449517668777698e-07</v>
+        <v>2.508721504985229e-09</v>
       </c>
       <c r="G36">
         <v>2585545.822670824</v>
       </c>
       <c r="H36">
-        <v>0.9997415334718036</v>
+        <v>0.9999950962810169</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,19 +2958,19 @@
         <v>4.561577120072551e-05</v>
       </c>
       <c r="K36">
-        <v>0.01141188291392866</v>
+        <v>0.000242376274278131</v>
       </c>
       <c r="L36">
-        <v>0.9865118353500237</v>
+        <v>0.9996916942040397</v>
       </c>
       <c r="M36">
-        <v>0.9999024226542541</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.0001170819628857516</v>
+        <v>4.306725848336567e-05</v>
       </c>
       <c r="O36">
-        <v>2.468427129620936e-08</v>
+        <v>1.152190554957986e-06</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0.9999984682109315</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9862553443234469</v>
+        <v>0.9996867919969016</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>4.991228394730075e-12</v>
       </c>
       <c r="F37">
-        <v>7.865674943931142e-07</v>
+        <v>2.088232285999418e-09</v>
       </c>
       <c r="G37">
         <v>3106174.754095738</v>
       </c>
       <c r="H37">
-        <v>0.9997714415146367</v>
+        <v>0.999995661270187</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,19 +3029,19 @@
         <v>5.870460149883951e-05</v>
       </c>
       <c r="K37">
-        <v>0.01468636879700376</v>
+        <v>0.0003119228771045047</v>
       </c>
       <c r="L37">
-        <v>0.9826809661734655</v>
+        <v>0.9996033001251781</v>
       </c>
       <c r="M37">
-        <v>0.9998744241509778</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.0001506770529794452</v>
+        <v>5.542482743059017e-05</v>
       </c>
       <c r="O37">
-        <v>2.468435540327206e-08</v>
+        <v>1.152193132289642e-06</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0.999997304816174</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9824537181997338</v>
+        <v>0.9995989631165386</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.158788085411252e-12</v>
       </c>
       <c r="F38">
-        <v>6.553832574577607e-07</v>
+        <v>1.739955550772816e-09</v>
       </c>
       <c r="G38">
         <v>3727919.603795642</v>
       </c>
       <c r="H38">
-        <v>0.9997977471649778</v>
+        <v>0.9999961585846022</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,19 +3100,19 @@
         <v>7.562445560233146e-05</v>
       </c>
       <c r="K38">
-        <v>0.01891927747896274</v>
+        <v>0.0004018253623850494</v>
       </c>
       <c r="L38">
-        <v>0.9777497260579522</v>
+        <v>0.9994890705370901</v>
       </c>
       <c r="M38">
-        <v>0.9998382306501257</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.0001941052287623391</v>
+        <v>7.139938427781352e-05</v>
       </c>
       <c r="O38">
-        <v>2.468449540360854e-08</v>
+        <v>1.15219742238476e-06</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0.9999952478349969</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9775473279156381</v>
+        <v>0.9994852310843847</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.468109238631446e-12</v>
       </c>
       <c r="F39">
-        <v>5.465392040548912e-07</v>
+        <v>1.450989037313871e-09</v>
       </c>
       <c r="G39">
         <v>4470340.051270776</v>
       </c>
       <c r="H39">
-        <v>0.9998209184005332</v>
+        <v>0.9999965969596255</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,19 +3171,19 @@
         <v>9.750323113378348e-05</v>
       </c>
       <c r="K39">
-        <v>0.02439277969306291</v>
+        <v>0.0005180767368438141</v>
       </c>
       <c r="L39">
-        <v>0.9714054887852913</v>
+        <v>0.9993414189447187</v>
       </c>
       <c r="M39">
-        <v>0.9997914294498317</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0.0002502614641460875</v>
+        <v>9.205581200686161e-05</v>
       </c>
       <c r="O39">
-        <v>2.468472872364632e-08</v>
+        <v>1.152204572118683e-06</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>0.9999916064367307</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9712233758433499</v>
+        <v>0.9993380181455221</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>2.894200772787367e-12</v>
       </c>
       <c r="F40">
-        <v>4.560969905776243e-07</v>
+        <v>1.210876966135286e-09</v>
       </c>
       <c r="G40">
         <v>5356790.647493682</v>
       </c>
       <c r="H40">
-        <v>0.9998413545045113</v>
+        <v>0.9999969838559813</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,19 +3242,19 @@
         <v>0.0001258014549196122</v>
       </c>
       <c r="K40">
-        <v>0.03147226137265561</v>
+        <v>0.000668437409684721</v>
       </c>
       <c r="L40">
-        <v>0.9632496554497282</v>
+        <v>0.9991505321661464</v>
       </c>
       <c r="M40">
-        <v>0.9997308963163636</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.0003228944921496214</v>
+        <v>0.0001187730391045157</v>
       </c>
       <c r="O40">
-        <v>2.468511796548273e-08</v>
+        <v>1.152216499836458e-06</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0.9999851539890038</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9630825420845796</v>
+        <v>0.999147518584245</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.416718851929949e-12</v>
       </c>
       <c r="F41">
-        <v>3.80850632686374e-07</v>
+        <v>1.011107874388603e-09</v>
       </c>
       <c r="G41">
         <v>6415155.664158217</v>
       </c>
       <c r="H41">
-        <v>0.9998593978433998</v>
+        <v>0.9999973256773915</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,19 +3313,19 @@
         <v>0.0001624104268548831</v>
       </c>
       <c r="K41">
-        <v>0.04063087670081139</v>
+        <v>0.0008629566732915695</v>
       </c>
       <c r="L41">
-        <v>0.9527757507839855</v>
+        <v>0.9989037190883647</v>
       </c>
       <c r="M41">
-        <v>0.9996525855431835</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.0004168587106772419</v>
+        <v>0.0001533367002165636</v>
       </c>
       <c r="O41">
-        <v>2.468576788849312e-08</v>
+        <v>1.152236415728118e-06</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0.9999737122169396</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9526167456179997</v>
+        <v>0.998901047697565</v>
       </c>
     </row>
   </sheetData>
